--- a/data-raw/polson.safflower.xlsx
+++ b/data-raw/polson.safflower.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drop\rpack\agridat\data-raw\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19480A8F-89B7-42F3-924A-E8BF46BCA400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="108" windowWidth="14208" windowHeight="6192" activeTab="2"/>
+    <workbookView xWindow="4680" yWindow="3640" windowWidth="7590" windowHeight="8130" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -121,7 +127,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -163,14 +169,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -208,7 +217,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -280,7 +289,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -453,20 +462,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection sqref="A1:A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="14" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -510,7 +519,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -554,7 +563,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -598,7 +607,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -642,7 +651,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -686,7 +695,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -730,7 +739,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -774,7 +783,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -818,7 +827,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -862,7 +871,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -906,7 +915,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -950,7 +959,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -994,7 +1003,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1038,7 +1047,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1082,7 +1091,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1126,7 +1135,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1170,7 +1179,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1214,7 +1223,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1258,7 +1267,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1302,7 +1311,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -1346,7 +1355,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1390,7 +1399,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1434,7 +1443,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1478,7 +1487,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -1522,7 +1531,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -1566,7 +1575,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -1610,7 +1619,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -1654,7 +1663,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -1698,7 +1707,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1742,7 +1751,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -1786,7 +1795,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -1830,7 +1839,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -1874,7 +1883,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -1924,20 +1933,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection sqref="A1:A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="14" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1981,7 +1990,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2025,7 +2034,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -2069,7 +2078,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2113,7 +2122,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2157,7 +2166,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2201,7 +2210,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2245,7 +2254,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2289,7 +2298,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2333,7 +2342,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2377,7 +2386,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2421,7 +2430,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2465,7 +2474,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2509,7 +2518,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2553,7 +2562,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -2597,7 +2606,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -2641,7 +2650,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -2685,7 +2694,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -2729,7 +2738,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -2773,7 +2782,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -2817,7 +2826,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -2861,7 +2870,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -2905,7 +2914,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -2949,7 +2958,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -2993,7 +3002,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -3037,7 +3046,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -3081,7 +3090,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -3125,7 +3134,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -3169,7 +3178,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -3213,7 +3222,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -3257,7 +3266,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -3301,7 +3310,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -3345,7 +3354,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -3395,20 +3404,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="14" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3452,7 +3461,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3496,7 +3505,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -3540,7 +3549,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3584,7 +3593,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3628,7 +3637,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3672,7 +3681,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3716,7 +3725,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3760,7 +3769,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3804,7 +3813,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3848,7 +3857,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3892,7 +3901,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -3936,7 +3945,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -3980,7 +3989,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -4024,7 +4033,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -4068,7 +4077,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -4112,7 +4121,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -4156,7 +4165,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -4200,7 +4209,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -4244,7 +4253,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -4288,7 +4297,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -4332,7 +4341,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -4376,7 +4385,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -4420,7 +4429,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -4464,7 +4473,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -4508,7 +4517,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -4552,7 +4561,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -4596,7 +4605,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -4640,7 +4649,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -4684,7 +4693,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -4728,7 +4737,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -4772,7 +4781,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -4816,7 +4825,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -4866,20 +4875,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="14" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4923,7 +4932,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4967,7 +4976,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -5011,7 +5020,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -5055,7 +5064,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -5099,7 +5108,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -5143,7 +5152,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -5187,7 +5196,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -5231,7 +5240,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -5275,7 +5284,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -5319,7 +5328,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -5363,7 +5372,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -5407,7 +5416,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -5451,7 +5460,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -5495,7 +5504,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -5539,7 +5548,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -5583,7 +5592,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -5627,7 +5636,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -5671,7 +5680,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -5715,7 +5724,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -5759,7 +5768,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -5803,7 +5812,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -5847,7 +5856,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -5891,7 +5900,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -5935,7 +5944,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -5979,7 +5988,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -6023,7 +6032,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -6067,7 +6076,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -6111,7 +6120,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -6155,7 +6164,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -6199,7 +6208,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -6243,7 +6252,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -6287,7 +6296,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>22</v>
       </c>
